--- a/00文审机数值/H-货币资源表.xlsx
+++ b/00文审机数值/H-货币资源表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Item" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Item!$A$1:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Item!$A$1:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,55 +76,6 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-条件为空，过期倒计时为-1代表不会过期
-条件为空，过期倒计时大于0，代表货币获得时就开始过期倒计时
-条件不为空，过期倒计时大于0，代表满足过期倒计时开始条件后，开始计时，超过过期倒计时时，货币过期失效
-条件不为空，过期倒计时等于0，代表满足过期倒计时开始条件后，货币立即失效</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WIN:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-单位为小时（h）
--1 代表不会过期
-0 代表满足过期倒计时开始条件后立马过期</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WIN:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
 存放资源路径</t>
         </r>
       </text>
@@ -134,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>货币ID</t>
   </si>
@@ -148,12 +99,6 @@
     <t>最大堆叠数</t>
   </si>
   <si>
-    <t>过期倒计时开始条件</t>
-  </si>
-  <si>
-    <t>过期倒计时</t>
-  </si>
-  <si>
     <t>图标</t>
   </si>
   <si>
@@ -169,12 +114,6 @@
     <t>maxStackSize</t>
   </si>
   <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>expiredTime</t>
-  </si>
-  <si>
     <t>icon</t>
   </si>
   <si>
@@ -187,9 +126,6 @@
     <t>bool</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>金币</t>
   </si>
   <si>
@@ -197,12 +133,6 @@
   </si>
   <si>
     <t>小票</t>
-  </si>
-  <si>
-    <t>JP劵</t>
-  </si>
-  <si>
-    <t>每七天清零</t>
   </si>
 </sst>
 </file>
@@ -874,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,9 +818,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1221,101 +1148,81 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="16" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="30" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17" style="6" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="16" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="3" s="3" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>13</v>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:7">
+    <row r="4" s="4" customFormat="1" spans="1:5">
       <c r="A4" s="4">
         <v>10001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="b">
         <v>1</v>
@@ -1323,19 +1230,16 @@
       <c r="D4" s="4">
         <v>-1</v>
       </c>
-      <c r="F4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:6">
+    <row r="5" s="4" customFormat="1" spans="1:4">
       <c r="A5" s="4">
         <v>10002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="b">
         <v>1</v>
@@ -1343,30 +1247,8 @@
       <c r="D5" s="4">
         <v>-1</v>
       </c>
-      <c r="F5" s="4">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:6">
-      <c r="A6" s="5">
-        <v>10003</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="6" s="4" customFormat="1"/>
     <row r="7" s="4" customFormat="1"/>
     <row r="8" s="4" customFormat="1"/>
     <row r="9" s="4" customFormat="1"/>
@@ -1388,12 +1270,11 @@
     <row r="25" s="4" customFormat="1"/>
     <row r="26" s="4" customFormat="1"/>
     <row r="27" s="4" customFormat="1"/>
-    <row r="28" s="4" customFormat="1"/>
-    <row r="29" s="4" customFormat="1" spans="1:1">
-      <c r="A29" s="6"/>
+    <row r="28" s="4" customFormat="1" spans="1:1">
+      <c r="A28" s="5"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F6" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D5" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
